--- a/data_raw/Age_groups.xlsx
+++ b/data_raw/Age_groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmatth\Dropbox\Diss SarahMaria\Diphtheria_Vaccination\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCA215F-8BC4-4EFF-825A-A0FD4C0F99D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD991BE6-AC73-4CD9-A1DB-9D843EC08297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{5E5A18FD-EC6B-4BD4-B0D3-5825AA8F9BC0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{5E5A18FD-EC6B-4BD4-B0D3-5825AA8F9BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="1877" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="1951-1954" sheetId="3" r:id="rId4"/>
     <sheet name="1953" sheetId="4" r:id="rId5"/>
     <sheet name="1954-1965" sheetId="5" r:id="rId6"/>
-    <sheet name="1966-1968" sheetId="6" r:id="rId7"/>
+    <sheet name="1966-2022" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="41">
   <si>
     <t>Jahr</t>
   </si>
@@ -198,9 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5341,7 +5342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41176256-70BD-47C0-BB01-4719D0F43AC8}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
@@ -9324,7 +9325,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11186,10 +11187,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948CC2D2-E2E9-4516-8577-B28C469C8321}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11538,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1967</v>
       </c>
@@ -11796,7 +11797,9296 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1969</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1969</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1970</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1970</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1971</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1971</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1972</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1972</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1973</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1973</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1974</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1974</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1975</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1975</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1976</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1976</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1977</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1977</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1978</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1978</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1979</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1979</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1980</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1980</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1981</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1981</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1982</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1982</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1983</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1983</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1984</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1984</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1985</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1985</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1986</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1986</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1987</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1987</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1988</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1988</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1989</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1989</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1990</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1990</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1991</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1991</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1992</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1992</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1993</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <v>1</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1994</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1995</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1995</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1996</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1996</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1997</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1997</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1998</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1998</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1999</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1999</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2000</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2000</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2001</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2001</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2002</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2002</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2003</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2003</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2004</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2004</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2005</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2005</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2006</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2006</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2007</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2007</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2008</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2008</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2009</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2009</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2010</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2010</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2011</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2011</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>2012</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>2012</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2013</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2013</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2014</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>2014</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2015</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2015</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2016</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2016</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2017</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2017</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2018</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2018</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2019</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2019</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2020</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2020</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2021</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2021</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2022</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2022</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>